--- a/_site/dolartoday.xlsx
+++ b/_site/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="3409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="3412">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10241,6 +10241,15 @@
   </si>
   <si>
     <t>4-1-2020</t>
+  </si>
+  <si>
+    <t>4-2-2020</t>
+  </si>
+  <si>
+    <t>4-3-2020</t>
+  </si>
+  <si>
+    <t>4-4-2020</t>
   </si>
 </sst>
 </file>
@@ -10377,203 +10386,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3375:$A$3405</c:f>
+              <c:f>DolarToday!$A$3378:$A$3408</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-2-2020</c:v>
+                  <c:v>3-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-3-2020</c:v>
+                  <c:v>3-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-4-2020</c:v>
+                  <c:v>3-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-5-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-6-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3375:$B$3405</c:f>
+              <c:f>DolarToday!$B$3378:$B$3408</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>75492.29</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75730.74</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75201.82</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75008.41</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75008.41</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76232.75</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76103.62</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76403.82</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80023.18</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80023.18</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76713.38</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75724.82</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72731.72</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71842.92</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84723.01</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84723.01</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>84581.04</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87076.65</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87396.82</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10980,7 +10989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3405"/>
+  <dimension ref="A1:K3408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38240,16 +38249,6 @@
       <c r="B3403">
         <v>87076.65</v>
       </c>
-      <c r="D3403" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3403" s="3"/>
-      <c r="F3403" s="3"/>
-      <c r="G3403" s="3"/>
-      <c r="H3403" s="3"/>
-      <c r="I3403" s="3"/>
-      <c r="J3403" s="3"/>
-      <c r="K3403" s="3"/>
     </row>
     <row r="3404" spans="1:11">
       <c r="A3404" t="s">
@@ -38258,16 +38257,6 @@
       <c r="B3404">
         <v>87396.82</v>
       </c>
-      <c r="D3404" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3404" s="4"/>
-      <c r="F3404" s="4"/>
-      <c r="G3404" s="4"/>
-      <c r="H3404" s="4"/>
-      <c r="I3404" s="4"/>
-      <c r="J3404" s="4"/>
-      <c r="K3404" s="4"/>
     </row>
     <row r="3405" spans="1:11">
       <c r="A3405" t="s">
@@ -38276,21 +38265,65 @@
       <c r="B3405">
         <v>89168.7</v>
       </c>
-      <c r="D3405" s="4"/>
-      <c r="E3405" s="4"/>
-      <c r="F3405" s="4"/>
-      <c r="G3405" s="4"/>
-      <c r="H3405" s="4"/>
-      <c r="I3405" s="4"/>
-      <c r="J3405" s="4"/>
-      <c r="K3405" s="4"/>
+    </row>
+    <row r="3406" spans="1:11">
+      <c r="A3406" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B3406">
+        <v>94120.28</v>
+      </c>
+      <c r="D3406" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3406" s="3"/>
+      <c r="F3406" s="3"/>
+      <c r="G3406" s="3"/>
+      <c r="H3406" s="3"/>
+      <c r="I3406" s="3"/>
+      <c r="J3406" s="3"/>
+      <c r="K3406" s="3"/>
+    </row>
+    <row r="3407" spans="1:11">
+      <c r="A3407" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B3407">
+        <v>94120.28</v>
+      </c>
+      <c r="D3407" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3407" s="4"/>
+      <c r="F3407" s="4"/>
+      <c r="G3407" s="4"/>
+      <c r="H3407" s="4"/>
+      <c r="I3407" s="4"/>
+      <c r="J3407" s="4"/>
+      <c r="K3407" s="4"/>
+    </row>
+    <row r="3408" spans="1:11">
+      <c r="A3408" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B3408">
+        <v>94120.28</v>
+      </c>
+      <c r="D3408" s="4"/>
+      <c r="E3408" s="4"/>
+      <c r="F3408" s="4"/>
+      <c r="G3408" s="4"/>
+      <c r="H3408" s="4"/>
+      <c r="I3408" s="4"/>
+      <c r="J3408" s="4"/>
+      <c r="K3408" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3403:K3403"/>
-    <mergeCell ref="D3404:K3405"/>
+    <mergeCell ref="D3406:K3406"/>
+    <mergeCell ref="D3407:K3408"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/_site/dolartoday.xlsx
+++ b/_site/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="3412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3413">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10250,6 +10250,9 @@
   </si>
   <si>
     <t>4-4-2020</t>
+  </si>
+  <si>
+    <t>4-5-2020</t>
   </si>
 </sst>
 </file>
@@ -10386,108 +10389,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3378:$A$3408</c:f>
+              <c:f>DolarToday!$A$3379:$A$3409</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-5-2020</c:v>
+                  <c:v>3-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-6-2020</c:v>
+                  <c:v>3-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3378:$B$3408</c:f>
+              <c:f>DolarToday!$B$3379:$B$3409</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10498,19 +10501,19 @@
                   <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76232.75</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>94120.28</c:v>
@@ -10582,7 +10585,7 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10989,7 +10992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3408"/>
+  <dimension ref="A1:K3409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38273,16 +38276,6 @@
       <c r="B3406">
         <v>94120.28</v>
       </c>
-      <c r="D3406" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3406" s="3"/>
-      <c r="F3406" s="3"/>
-      <c r="G3406" s="3"/>
-      <c r="H3406" s="3"/>
-      <c r="I3406" s="3"/>
-      <c r="J3406" s="3"/>
-      <c r="K3406" s="3"/>
     </row>
     <row r="3407" spans="1:11">
       <c r="A3407" t="s">
@@ -38291,16 +38284,16 @@
       <c r="B3407">
         <v>94120.28</v>
       </c>
-      <c r="D3407" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3407" s="4"/>
-      <c r="F3407" s="4"/>
-      <c r="G3407" s="4"/>
-      <c r="H3407" s="4"/>
-      <c r="I3407" s="4"/>
-      <c r="J3407" s="4"/>
-      <c r="K3407" s="4"/>
+      <c r="D3407" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3407" s="3"/>
+      <c r="F3407" s="3"/>
+      <c r="G3407" s="3"/>
+      <c r="H3407" s="3"/>
+      <c r="I3407" s="3"/>
+      <c r="J3407" s="3"/>
+      <c r="K3407" s="3"/>
     </row>
     <row r="3408" spans="1:11">
       <c r="A3408" t="s">
@@ -38309,7 +38302,9 @@
       <c r="B3408">
         <v>94120.28</v>
       </c>
-      <c r="D3408" s="4"/>
+      <c r="D3408" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3408" s="4"/>
       <c r="F3408" s="4"/>
       <c r="G3408" s="4"/>
@@ -38318,12 +38313,28 @@
       <c r="J3408" s="4"/>
       <c r="K3408" s="4"/>
     </row>
+    <row r="3409" spans="1:11">
+      <c r="A3409" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B3409">
+        <v>99043.72</v>
+      </c>
+      <c r="D3409" s="4"/>
+      <c r="E3409" s="4"/>
+      <c r="F3409" s="4"/>
+      <c r="G3409" s="4"/>
+      <c r="H3409" s="4"/>
+      <c r="I3409" s="4"/>
+      <c r="J3409" s="4"/>
+      <c r="K3409" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3406:K3406"/>
-    <mergeCell ref="D3407:K3408"/>
+    <mergeCell ref="D3407:K3407"/>
+    <mergeCell ref="D3408:K3409"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
